--- a/data/trans_dic/P36$huevo-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03041837957116371</v>
+        <v>0.03092386842225284</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03845725618837508</v>
+        <v>0.03884717213121802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08022298902981692</v>
+        <v>0.08093129765962481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007734186023277729</v>
+        <v>0.007341256669874482</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01055495848238015</v>
+        <v>0.01032428768728398</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06057627181990821</v>
+        <v>0.06173899249724656</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0211287385807728</v>
+        <v>0.02092775669324392</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02826637883659041</v>
+        <v>0.02841475277412593</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07570571634795485</v>
+        <v>0.0773370297167118</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06216250281936262</v>
+        <v>0.06192710681187524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07282232316619985</v>
+        <v>0.07351337841038853</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1280542141770145</v>
+        <v>0.1270199424626649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02645103470849325</v>
+        <v>0.02587197261489748</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03516796272890172</v>
+        <v>0.03273119712873278</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.102311593716015</v>
+        <v>0.1043437851294314</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04001721901982552</v>
+        <v>0.03894501627431718</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04836643605417251</v>
+        <v>0.04823932783036486</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.10767956814211</v>
+        <v>0.1080071703721724</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03172568247264104</v>
+        <v>0.0313276072252362</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0260242505224886</v>
+        <v>0.02635636098882679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08661552772745532</v>
+        <v>0.08376081549687106</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02275522478246712</v>
+        <v>0.02451168624448167</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008048835631889163</v>
+        <v>0.007719682793447319</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07225751564032906</v>
+        <v>0.07273451568955089</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03077766491350177</v>
+        <v>0.030441195471913</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01938980583023141</v>
+        <v>0.01895813330668254</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08260232748280542</v>
+        <v>0.08263753814468773</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06129134748315362</v>
+        <v>0.06149057514814944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05185924947666239</v>
+        <v>0.05014685291505284</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1256230255158214</v>
+        <v>0.1234646183862101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04775955541469767</v>
+        <v>0.04800332715037058</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02320222899113437</v>
+        <v>0.0226601625329336</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1100787746853017</v>
+        <v>0.1095426391160543</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04939636077444878</v>
+        <v>0.04951349215918053</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03405382370705134</v>
+        <v>0.03306566396736975</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1080783286303705</v>
+        <v>0.1104200602579114</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02320876456854106</v>
+        <v>0.02211299459351817</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03688719469584547</v>
+        <v>0.03555206882641536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01797490575414303</v>
+        <v>0.01818265054674987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007528695485228301</v>
+        <v>0.007803408125805972</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01974715340307149</v>
+        <v>0.01927789683074298</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01157874404963311</v>
+        <v>0.01118084634412648</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01717274558837842</v>
+        <v>0.01763096507133602</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0312093231728914</v>
+        <v>0.03097487449357574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01694836375857126</v>
+        <v>0.01724661772302915</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05570987280083067</v>
+        <v>0.05288946165019041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06833725811972155</v>
+        <v>0.06924898865962287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04404597883280703</v>
+        <v>0.04376230825171402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02692232703879223</v>
+        <v>0.02530301493157562</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04922876908433142</v>
+        <v>0.04773640761821078</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03106800115472062</v>
+        <v>0.03119576121304826</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03572922455291545</v>
+        <v>0.03612749083131626</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05185367855379348</v>
+        <v>0.05312452816665264</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03368864243000412</v>
+        <v>0.03354970029539259</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01466305704837125</v>
+        <v>0.01394256334299223</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0209512576596999</v>
+        <v>0.02178273113316348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04447238248416371</v>
+        <v>0.04372935002823639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0101779669686942</v>
+        <v>0.009308569448969021</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01947466672901256</v>
+        <v>0.01938992668791128</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03826458788171321</v>
+        <v>0.03809574480439445</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01373926825206405</v>
+        <v>0.01379990027620355</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02326239774849291</v>
+        <v>0.02315602048729273</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04519897753117238</v>
+        <v>0.04484753317145643</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0316634399511151</v>
+        <v>0.03086363447779115</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04444998147761137</v>
+        <v>0.04465779589497555</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07654245514170331</v>
+        <v>0.0750773296183459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02759643961396296</v>
+        <v>0.02813663301064895</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04310868812212894</v>
+        <v>0.0428133987023356</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06687702326108574</v>
+        <v>0.06678008812703772</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02514419085519475</v>
+        <v>0.02571242789792394</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03871646288923529</v>
+        <v>0.03952511634289595</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06640145311553459</v>
+        <v>0.06528467585546592</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0295233840722469</v>
+        <v>0.02952055424123693</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0355679479001493</v>
+        <v>0.03542710290484526</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06561623694910278</v>
+        <v>0.06538820627646924</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01624361351810361</v>
+        <v>0.0164447883492774</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01857031680574116</v>
+        <v>0.01811037941923042</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05318298841934026</v>
+        <v>0.05239385272448546</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02456034988470497</v>
+        <v>0.02436705490352887</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02863162788655244</v>
+        <v>0.02864901667805584</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06119145167640339</v>
+        <v>0.06164558326960908</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04357757609869251</v>
+        <v>0.04363749292203995</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04953665722946386</v>
+        <v>0.04887399689395202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0835366198257696</v>
+        <v>0.08341701402078183</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02635154569324247</v>
+        <v>0.02674437373605118</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02913840246379234</v>
+        <v>0.02948645215166067</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06940504234593244</v>
+        <v>0.06859208226918102</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03297139635314197</v>
+        <v>0.03282689570591636</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03717403759228957</v>
+        <v>0.03710211757212264</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07354235974879006</v>
+        <v>0.07426840418842245</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21081</v>
+        <v>21431</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26977</v>
+        <v>27250</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>53991</v>
+        <v>54468</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5324</v>
+        <v>5053</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7347</v>
+        <v>7187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40686</v>
+        <v>41467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29187</v>
+        <v>28909</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39505</v>
+        <v>39712</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>101799</v>
+        <v>103992</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43080</v>
+        <v>42917</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51083</v>
+        <v>51567</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>86182</v>
+        <v>85486</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18208</v>
+        <v>17809</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24481</v>
+        <v>22785</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>68717</v>
+        <v>70082</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>55279</v>
+        <v>53798</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>67596</v>
+        <v>67418</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>144793</v>
+        <v>145233</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>30421</v>
+        <v>30039</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26491</v>
+        <v>26829</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>88463</v>
+        <v>85547</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22013</v>
+        <v>23712</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8291</v>
+        <v>7952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>75290</v>
+        <v>75787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59286</v>
+        <v>58638</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>39712</v>
+        <v>38828</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>170433</v>
+        <v>170506</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58770</v>
+        <v>58961</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52790</v>
+        <v>51047</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>128302</v>
+        <v>126098</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46202</v>
+        <v>46438</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23901</v>
+        <v>23343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>114698</v>
+        <v>114140</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>95150</v>
+        <v>95376</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>69745</v>
+        <v>67721</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>222997</v>
+        <v>227829</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15723</v>
+        <v>14981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>27872</v>
+        <v>26863</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13633</v>
+        <v>13791</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5148</v>
+        <v>5336</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15327</v>
+        <v>14963</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9089</v>
+        <v>8777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23377</v>
+        <v>24001</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47806</v>
+        <v>47446</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26159</v>
+        <v>26620</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37742</v>
+        <v>35831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51635</v>
+        <v>52324</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33408</v>
+        <v>33192</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18411</v>
+        <v>17303</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38210</v>
+        <v>37052</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24389</v>
+        <v>24489</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48639</v>
+        <v>49181</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79428</v>
+        <v>81375</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>51998</v>
+        <v>51783</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13790</v>
+        <v>13112</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19817</v>
+        <v>20604</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41696</v>
+        <v>40999</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10540</v>
+        <v>9640</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20444</v>
+        <v>20355</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39897</v>
+        <v>39721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>27149</v>
+        <v>27269</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>46423</v>
+        <v>46211</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>89505</v>
+        <v>88809</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29778</v>
+        <v>29026</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42044</v>
+        <v>42240</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71764</v>
+        <v>70390</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28579</v>
+        <v>29138</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45255</v>
+        <v>44945</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>69730</v>
+        <v>69629</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>49686</v>
+        <v>50809</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>77264</v>
+        <v>78878</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131490</v>
+        <v>129279</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>96536</v>
+        <v>96527</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>121674</v>
+        <v>121192</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>222464</v>
+        <v>221691</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54825</v>
+        <v>55504</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>65965</v>
+        <v>64331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>188336</v>
+        <v>185542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>163203</v>
+        <v>161919</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>199650</v>
+        <v>199771</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>424159</v>
+        <v>427307</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>142491</v>
+        <v>142687</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>169459</v>
+        <v>167192</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>283221</v>
+        <v>282815</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>88941</v>
+        <v>90267</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>103505</v>
+        <v>104741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>245783</v>
+        <v>242904</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>219095</v>
+        <v>218134</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>259217</v>
+        <v>258715</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>509771</v>
+        <v>514804</v>
       </c>
     </row>
     <row r="24">
